--- a/Section 11/aula-desloc-corresp.xlsx
+++ b/Section 11/aula-desloc-corresp.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C958CBF-00C1-4F83-BEC1-7D49A95B61B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estados" sheetId="1" r:id="rId1"/>
@@ -16,9 +17,24 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="Cidade">TbCidades[[#All],[Cidade]]</definedName>
+    <definedName name="Estado">TbCidades[[#All],[Estado]]</definedName>
     <definedName name="TbCidades_Cidade">[1]!TbCidades[Cidade]</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -130,9 +146,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -217,25 +233,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,7 +255,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -253,7 +264,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -269,7 +280,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Estados"/>
@@ -290,42 +301,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbEstados" displayName="TbEstados" ref="A1:A6" totalsRowShown="0">
-  <autoFilter ref="A1:A6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TbEstados" displayName="TbEstados" ref="A1:A6" totalsRowShown="0">
+  <autoFilter ref="A1:A6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Estado"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Estado"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TbCidades" displayName="TbCidades" ref="A1:B16" totalsRowShown="0">
-  <autoFilter ref="A1:B16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TbCidades" displayName="TbCidades" ref="A1:B16" totalsRowShown="0">
+  <autoFilter ref="A1:B16" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Estado"/>
-    <tableColumn id="2" name="Cidade"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Estado"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cidade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TbRepasses" displayName="TbRepasses" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TbRepasses" displayName="TbRepasses" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Estado"/>
-    <tableColumn id="2" name="Cidade"/>
-    <tableColumn id="3" name="Valor do repasse" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Estado"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Cidade"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Valor do repasse" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -363,9 +374,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,7 +411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +446,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -608,42 +619,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -657,20 +668,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -678,60 +691,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <f>MATCH(D3,Estado,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -739,27 +755,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -767,7 +783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -775,7 +791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -783,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -791,7 +807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -799,7 +815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -807,7 +823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -824,19 +840,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -858,7 +874,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -869,7 +885,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -889,26 +905,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D1" t="s">
@@ -918,19 +932,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -940,75 +954,78 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="3">
+        <f ca="1">OFFSET(A5,3,1)</f>
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>10</v>
       </c>
     </row>
